--- a/v-tree generate rule.xlsx
+++ b/v-tree generate rule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="706">
   <si>
     <t>modellist xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2677,12 +2677,6 @@
     <t>modelCode.originalValue</t>
   </si>
   <si>
-    <t>to be discussed with IO if can be maintained manually</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Keep empty </t>
   </si>
   <si>
@@ -2705,6 +2699,30 @@
   </si>
   <si>
     <t>strandard_or_li</t>
+  </si>
+  <si>
+    <t>9 digits code</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>seriesOrder x 100 + step</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,X,Z4,M,i</t>
+  </si>
+  <si>
+    <t>cosy image for topnav</t>
+  </si>
+  <si>
+    <t>Keep the same as cosySecUrlPNG</t>
   </si>
 </sst>
 </file>
@@ -2964,10 +2982,15 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2976,23 +2999,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3300,10 +3318,10 @@
   <dimension ref="A1:H384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B347" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I375" sqref="I375"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3329,17 +3347,17 @@
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
@@ -3351,11 +3369,11 @@
       <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
@@ -3366,12 +3384,12 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="35" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -3383,11 +3401,11 @@
       <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="11" t="s">
@@ -3399,13 +3417,13 @@
       <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
@@ -3417,11 +3435,11 @@
       <c r="C6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
@@ -3433,11 +3451,11 @@
       <c r="C7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
@@ -3448,12 +3466,12 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="35" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
@@ -3464,12 +3482,12 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="35" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
@@ -3479,13 +3497,13 @@
         <v>27</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="35" t="s">
-        <v>690</v>
-      </c>
-      <c r="E10" s="36"/>
+      <c r="D10" s="33" t="s">
+        <v>704</v>
+      </c>
+      <c r="E10" s="34"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
@@ -3493,13 +3511,13 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E11" s="31"/>
+      <c r="D11" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="E11" s="34"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
@@ -3507,13 +3525,13 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E12" s="31"/>
+      <c r="D12" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="E12" s="34"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
@@ -3521,13 +3539,13 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E13" s="31"/>
+      <c r="D13" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="E13" s="34"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
@@ -3538,12 +3556,12 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="35" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -3553,13 +3571,13 @@
         <v>28</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E15" s="31"/>
+      <c r="D15" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="E15" s="34"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -3569,13 +3587,13 @@
         <v>29</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E16" s="31"/>
+      <c r="D16" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="E16" s="34"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
@@ -3585,13 +3603,13 @@
         <v>645</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E17" s="31"/>
+      <c r="D17" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="E17" s="34"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
@@ -3601,13 +3619,13 @@
         <v>30</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="E18" s="31"/>
+      <c r="D18" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" s="34"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
@@ -3618,12 +3636,12 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="35" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
@@ -3635,11 +3653,11 @@
       <c r="C20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
@@ -3651,11 +3669,11 @@
       <c r="C21" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
@@ -3665,12 +3683,12 @@
         <v>34</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
@@ -3680,13 +3698,13 @@
         <v>36</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+        <v>692</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="14" t="s">
@@ -3696,11 +3714,11 @@
         <v>38</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="14" t="s">
@@ -3710,11 +3728,11 @@
         <v>40</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="14" t="s">
@@ -3724,11 +3742,11 @@
         <v>42</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="14" t="s">
@@ -3738,11 +3756,11 @@
         <v>38</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="14" t="s">
@@ -3750,11 +3768,11 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="14" t="s">
@@ -3762,11 +3780,11 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="14" t="s">
@@ -3776,11 +3794,11 @@
         <v>64</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="14" t="s">
@@ -3790,11 +3808,11 @@
         <v>40</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="14" t="s">
@@ -3804,11 +3822,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="14" t="s">
@@ -3818,11 +3836,11 @@
         <v>38</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="14" t="s">
@@ -3830,11 +3848,11 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="14" t="s">
@@ -3842,11 +3860,11 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="14" t="s">
@@ -3856,11 +3874,11 @@
         <v>64</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="14" t="s">
@@ -3870,11 +3888,11 @@
         <v>66</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="14" t="s">
@@ -3884,11 +3902,11 @@
         <v>67</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="14" t="s">
@@ -3898,11 +3916,11 @@
         <v>64</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="14" t="s">
@@ -3912,11 +3930,11 @@
         <v>68</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="14" t="s">
@@ -3926,11 +3944,11 @@
         <v>69</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="31"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="14" t="s">
@@ -3940,11 +3958,11 @@
         <v>64</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="31"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="14" t="s">
@@ -3954,11 +3972,11 @@
         <v>66</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="14" t="s">
@@ -3968,11 +3986,11 @@
         <v>78</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="31"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="14" t="s">
@@ -3982,11 +4000,11 @@
         <v>64</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="14" t="s">
@@ -3996,11 +4014,11 @@
         <v>68</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="31"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="14" t="s">
@@ -4010,11 +4028,11 @@
         <v>69</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="31"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="14" t="s">
@@ -4024,11 +4042,11 @@
         <v>71</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="14" t="s">
@@ -4038,11 +4056,11 @@
         <v>77</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="14" t="s">
@@ -4052,11 +4070,11 @@
         <v>78</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="31"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="14" t="s">
@@ -4066,11 +4084,11 @@
         <v>79</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="14" t="s">
@@ -4080,11 +4098,11 @@
         <v>80</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="14" t="s">
@@ -4094,11 +4112,11 @@
         <v>81</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="31"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="14" t="s">
@@ -4108,11 +4126,11 @@
         <v>65</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="14" t="s">
@@ -4122,11 +4140,11 @@
         <v>85</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="31"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="14" t="s">
@@ -4136,11 +4154,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="31"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="14" t="s">
@@ -4150,11 +4168,11 @@
         <v>65</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="14" t="s">
@@ -4164,11 +4182,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="31"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="34"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="14" t="s">
@@ -4178,11 +4196,11 @@
         <v>91</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="31"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="31"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="14" t="s">
@@ -4192,11 +4210,11 @@
         <v>38</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="31"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="31"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="14" t="s">
@@ -4206,11 +4224,11 @@
         <v>95</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="34"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="14" t="s">
@@ -4220,11 +4238,11 @@
         <v>96</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="31"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="14" t="s">
@@ -4234,11 +4252,11 @@
         <v>100</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="31"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="14" t="s">
@@ -4248,11 +4266,11 @@
         <v>101</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="31"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="31"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="14" t="s">
@@ -4262,11 +4280,11 @@
         <v>101</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="31"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="34"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="31"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="14" t="s">
@@ -4276,11 +4294,11 @@
         <v>105</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="31"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="14" t="s">
@@ -4290,11 +4308,11 @@
         <v>107</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="31"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="31"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="14" t="s">
@@ -4304,11 +4322,11 @@
         <v>106</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="31"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="34"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="31"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="14" t="s">
@@ -4318,11 +4336,11 @@
         <v>111</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="31"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="34"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="31"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="14" t="s">
@@ -4332,11 +4350,11 @@
         <v>112</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="31"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="31"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="14" t="s">
@@ -4346,11 +4364,11 @@
         <v>113</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="31"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="34"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="31"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="14" t="s">
@@ -4360,11 +4378,11 @@
         <v>38</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="31"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="31"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="14" t="s">
@@ -4374,11 +4392,11 @@
         <v>118</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="31"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="31"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="14" t="s">
@@ -4388,11 +4406,11 @@
         <v>117</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="31"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="31"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="14" t="s">
@@ -4402,11 +4420,11 @@
         <v>65</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="31"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="34"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="31"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="14" t="s">
@@ -4416,11 +4434,11 @@
         <v>122</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="31"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="34"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="31"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="34"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="14" t="s">
@@ -4430,11 +4448,11 @@
         <v>122</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="31"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="34"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="31"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="14" t="s">
@@ -4444,11 +4462,11 @@
         <v>124</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="31"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="34"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="31"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="14" t="s">
@@ -4458,11 +4476,11 @@
         <v>128</v>
       </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="31"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="31"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="14" t="s">
@@ -4472,11 +4490,11 @@
         <v>129</v>
       </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="31"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="31"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="14" t="s">
@@ -4486,11 +4504,11 @@
         <v>130</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="31"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="34"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="31"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="14" t="s">
@@ -4500,11 +4518,11 @@
         <v>105</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="31"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="34"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="31"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="14" t="s">
@@ -4514,11 +4532,11 @@
         <v>134</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="31"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="34"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="31"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="14" t="s">
@@ -4528,11 +4546,11 @@
         <v>135</v>
       </c>
       <c r="C84" s="5"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="31"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="34"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="31"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="14" t="s">
@@ -4542,11 +4560,11 @@
         <v>137</v>
       </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="31"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="34"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="31"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="14" t="s">
@@ -4556,11 +4574,11 @@
         <v>138</v>
       </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="31"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="31"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="14" t="s">
@@ -4570,11 +4588,11 @@
         <v>143</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="31"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="34"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="31"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="14" t="s">
@@ -4584,11 +4602,11 @@
         <v>144</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="31"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="31"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="14" t="s">
@@ -4598,11 +4616,11 @@
         <v>145</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="31"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="34"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="31"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="14" t="s">
@@ -4612,11 +4630,11 @@
         <v>71</v>
       </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="31"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="34"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="31"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="14" t="s">
@@ -4626,11 +4644,11 @@
         <v>149</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="31"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="34"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="31"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="14" t="s">
@@ -4640,11 +4658,11 @@
         <v>150</v>
       </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="31"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="34"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="31"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="34"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="14" t="s">
@@ -4654,11 +4672,11 @@
         <v>71</v>
       </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="31"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="34"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="31"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="34"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="14" t="s">
@@ -4668,11 +4686,11 @@
         <v>159</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="31"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="34"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="31"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="34"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="14" t="s">
@@ -4682,11 +4700,11 @@
         <v>160</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="31"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="34"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="31"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="34"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="14" t="s">
@@ -4696,11 +4714,11 @@
         <v>105</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="31"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="34"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="31"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="34"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="14" t="s">
@@ -4710,11 +4728,11 @@
         <v>161</v>
       </c>
       <c r="C97" s="5"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="31"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="34"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="31"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="14" t="s">
@@ -4724,11 +4742,11 @@
         <v>162</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="31"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="34"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="31"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="34"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="14" t="s">
@@ -4738,11 +4756,11 @@
         <v>177</v>
       </c>
       <c r="C99" s="5"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="31"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="34"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="31"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="34"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="14" t="s">
@@ -4752,11 +4770,11 @@
         <v>178</v>
       </c>
       <c r="C100" s="5"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="31"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="34"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="31"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="34"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="14" t="s">
@@ -4766,11 +4784,11 @@
         <v>71</v>
       </c>
       <c r="C101" s="5"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="34"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="31"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="34"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="14" t="s">
@@ -4778,11 +4796,11 @@
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="31"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="34"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="31"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="34"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="14" t="s">
@@ -4790,11 +4808,11 @@
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="31"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="34"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="31"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="14" t="s">
@@ -4804,11 +4822,11 @@
         <v>71</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="31"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="34"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="31"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="14" t="s">
@@ -4816,11 +4834,11 @@
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="31"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="34"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="31"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="14" t="s">
@@ -4828,11 +4846,11 @@
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="31"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="34"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="31"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="34"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="14" t="s">
@@ -4842,11 +4860,11 @@
         <v>71</v>
       </c>
       <c r="C107" s="5"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="31"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="34"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="31"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="14" t="s">
@@ -4854,11 +4872,11 @@
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="31"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="34"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="31"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="14" t="s">
@@ -4866,11 +4884,11 @@
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="31"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="34"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="31"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="14" t="s">
@@ -4880,11 +4898,11 @@
         <v>71</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="31"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="34"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="31"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="34"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="14" t="s">
@@ -4892,11 +4910,11 @@
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="31"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="34"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="31"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="14" t="s">
@@ -4904,11 +4922,11 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="31"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="34"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="31"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="34"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="14" t="s">
@@ -4918,11 +4936,11 @@
         <v>193</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="31"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="34"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="31"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="14" t="s">
@@ -4932,11 +4950,11 @@
         <v>194</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="31"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="34"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="31"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="34"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="14" t="s">
@@ -4946,11 +4964,11 @@
         <v>195</v>
       </c>
       <c r="C115" s="5"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="31"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="34"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="31"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="34"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="14" t="s">
@@ -4960,11 +4978,11 @@
         <v>196</v>
       </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="31"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="34"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="31"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="14" t="s">
@@ -4974,11 +4992,11 @@
         <v>197</v>
       </c>
       <c r="C117" s="5"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="31"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="34"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="31"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="14" t="s">
@@ -4988,11 +5006,11 @@
         <v>198</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="31"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="34"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="31"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="14" t="s">
@@ -5002,11 +5020,11 @@
         <v>199</v>
       </c>
       <c r="C119" s="5"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="31"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="34"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="31"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="34"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="14" t="s">
@@ -5016,11 +5034,11 @@
         <v>200</v>
       </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="31"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="34"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="31"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="14" t="s">
@@ -5030,11 +5048,11 @@
         <v>128</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="31"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="34"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="31"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="14" t="s">
@@ -5042,11 +5060,11 @@
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="31"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="34"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="31"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="14" t="s">
@@ -5054,11 +5072,11 @@
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="31"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="34"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="31"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="14" t="s">
@@ -5068,11 +5086,11 @@
         <v>71</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="31"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="34"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="31"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="14" t="s">
@@ -5080,11 +5098,11 @@
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="31"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="34"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="31"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="34"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="14" t="s">
@@ -5092,11 +5110,11 @@
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="31"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="34"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="31"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="34"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="14" t="s">
@@ -5106,11 +5124,11 @@
         <v>202</v>
       </c>
       <c r="C127" s="5"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="31"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="34"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="31"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="14" t="s">
@@ -5120,11 +5138,11 @@
         <v>204</v>
       </c>
       <c r="C128" s="5"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="31"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="34"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="31"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="14" t="s">
@@ -5134,11 +5152,11 @@
         <v>71</v>
       </c>
       <c r="C129" s="5"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="31"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="34"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="30"/>
-      <c r="H129" s="31"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="34"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="14" t="s">
@@ -5148,11 +5166,11 @@
         <v>211</v>
       </c>
       <c r="C130" s="5"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="31"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="34"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="31"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="14" t="s">
@@ -5162,11 +5180,11 @@
         <v>212</v>
       </c>
       <c r="C131" s="5"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="31"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="34"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="31"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="34"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="14" t="s">
@@ -5176,11 +5194,11 @@
         <v>71</v>
       </c>
       <c r="C132" s="5"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="31"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="34"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="31"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="34"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="14" t="s">
@@ -5190,11 +5208,11 @@
         <v>213</v>
       </c>
       <c r="C133" s="5"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="31"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="34"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="31"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="14" t="s">
@@ -5204,11 +5222,11 @@
         <v>214</v>
       </c>
       <c r="C134" s="5"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="31"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="34"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="31"/>
+      <c r="G134" s="33"/>
+      <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="14" t="s">
@@ -5218,11 +5236,11 @@
         <v>71</v>
       </c>
       <c r="C135" s="5"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="31"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="34"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="31"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="34"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="14" t="s">
@@ -5232,11 +5250,11 @@
         <v>221</v>
       </c>
       <c r="C136" s="5"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="31"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="34"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="31"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="34"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="14" t="s">
@@ -5246,11 +5264,11 @@
         <v>222</v>
       </c>
       <c r="C137" s="5"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="31"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="34"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="31"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="34"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="14" t="s">
@@ -5260,11 +5278,11 @@
         <v>71</v>
       </c>
       <c r="C138" s="5"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="31"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="34"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="31"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="34"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="14" t="s">
@@ -5274,11 +5292,11 @@
         <v>223</v>
       </c>
       <c r="C139" s="5"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="31"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="34"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="31"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="34"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="14" t="s">
@@ -5288,11 +5306,11 @@
         <v>224</v>
       </c>
       <c r="C140" s="5"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="31"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="34"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="31"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="34"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="14" t="s">
@@ -5302,11 +5320,11 @@
         <v>238</v>
       </c>
       <c r="C141" s="5"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="31"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="34"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="31"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="34"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="14" t="s">
@@ -5316,11 +5334,11 @@
         <v>239</v>
       </c>
       <c r="C142" s="5"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="31"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="34"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="31"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="34"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="14" t="s">
@@ -5330,11 +5348,11 @@
         <v>71</v>
       </c>
       <c r="C143" s="5"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="31"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="34"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="31"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="34"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="14" t="s">
@@ -5342,11 +5360,11 @@
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="31"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="34"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="31"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="34"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="14" t="s">
@@ -5354,11 +5372,11 @@
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="31"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="34"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="31"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="34"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="14" t="s">
@@ -5368,11 +5386,11 @@
         <v>71</v>
       </c>
       <c r="C146" s="5"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="31"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="34"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="31"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="34"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="14" t="s">
@@ -5380,11 +5398,11 @@
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="31"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="34"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="31"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="34"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="14" t="s">
@@ -5392,11 +5410,11 @@
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="31"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="34"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="31"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="34"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="14" t="s">
@@ -5406,11 +5424,11 @@
         <v>71</v>
       </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="31"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="34"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="31"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="34"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="14" t="s">
@@ -5418,11 +5436,11 @@
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="31"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="34"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="31"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="34"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="14" t="s">
@@ -5430,11 +5448,11 @@
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="31"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="34"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="31"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="34"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="14" t="s">
@@ -5444,11 +5462,11 @@
         <v>71</v>
       </c>
       <c r="C152" s="5"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="31"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="34"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="31"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="34"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="14" t="s">
@@ -5456,11 +5474,11 @@
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="31"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="34"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="31"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="34"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="14" t="s">
@@ -5468,11 +5486,11 @@
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="31"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="34"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="31"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="34"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="14" t="s">
@@ -5482,11 +5500,11 @@
         <v>246</v>
       </c>
       <c r="C155" s="5"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="31"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="34"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="31"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="34"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="14" t="s">
@@ -5496,11 +5514,11 @@
         <v>247</v>
       </c>
       <c r="C156" s="5"/>
-      <c r="D156" s="30"/>
-      <c r="E156" s="31"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="34"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="31"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="34"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="14" t="s">
@@ -5510,11 +5528,11 @@
         <v>248</v>
       </c>
       <c r="C157" s="5"/>
-      <c r="D157" s="30"/>
-      <c r="E157" s="31"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="34"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="31"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="34"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="14" t="s">
@@ -5524,11 +5542,11 @@
         <v>249</v>
       </c>
       <c r="C158" s="5"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="31"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="34"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="31"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="34"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="14" t="s">
@@ -5538,11 +5556,11 @@
         <v>250</v>
       </c>
       <c r="C159" s="5"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="31"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="34"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="31"/>
+      <c r="G159" s="33"/>
+      <c r="H159" s="34"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="14" t="s">
@@ -5552,11 +5570,11 @@
         <v>251</v>
       </c>
       <c r="C160" s="5"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="31"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="34"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="31"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="34"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="14" t="s">
@@ -5566,11 +5584,11 @@
         <v>256</v>
       </c>
       <c r="C161" s="5"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="31"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="34"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="31"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="34"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="14" t="s">
@@ -5580,11 +5598,11 @@
         <v>71</v>
       </c>
       <c r="C162" s="5"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="31"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="34"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="31"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="34"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="14" t="s">
@@ -5594,11 +5612,11 @@
         <v>257</v>
       </c>
       <c r="C163" s="5"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="31"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="34"/>
       <c r="F163" s="5"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="31"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="34"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="14" t="s">
@@ -5608,11 +5626,11 @@
         <v>258</v>
       </c>
       <c r="C164" s="5"/>
-      <c r="D164" s="30"/>
-      <c r="E164" s="31"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="34"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="30"/>
-      <c r="H164" s="31"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="34"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="14" t="s">
@@ -5622,11 +5640,11 @@
         <v>266</v>
       </c>
       <c r="C165" s="5"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="31"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="34"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="31"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="34"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="14" t="s">
@@ -5636,11 +5654,11 @@
         <v>267</v>
       </c>
       <c r="C166" s="5"/>
-      <c r="D166" s="30"/>
-      <c r="E166" s="31"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="34"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="31"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="34"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="14" t="s">
@@ -5650,11 +5668,11 @@
         <v>268</v>
       </c>
       <c r="C167" s="5"/>
-      <c r="D167" s="30"/>
-      <c r="E167" s="31"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="34"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="31"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="34"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="14" t="s">
@@ -5664,11 +5682,11 @@
         <v>269</v>
       </c>
       <c r="C168" s="5"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="31"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="34"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="31"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="34"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="14" t="s">
@@ -5678,11 +5696,11 @@
         <v>270</v>
       </c>
       <c r="C169" s="5"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="31"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="34"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="31"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="34"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="14" t="s">
@@ -5692,11 +5710,11 @@
         <v>271</v>
       </c>
       <c r="C170" s="5"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="31"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="34"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="31"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="34"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="14" t="s">
@@ -5706,11 +5724,11 @@
         <v>272</v>
       </c>
       <c r="C171" s="5"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="31"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="34"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="31"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="34"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="14" t="s">
@@ -5720,11 +5738,11 @@
         <v>273</v>
       </c>
       <c r="C172" s="5"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="31"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="34"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="31"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="34"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="14" t="s">
@@ -5734,11 +5752,11 @@
         <v>278</v>
       </c>
       <c r="C173" s="5"/>
-      <c r="D173" s="30"/>
-      <c r="E173" s="31"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="34"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="30"/>
-      <c r="H173" s="31"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="34"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="14" t="s">
@@ -5748,11 +5766,11 @@
         <v>279</v>
       </c>
       <c r="C174" s="5"/>
-      <c r="D174" s="30"/>
-      <c r="E174" s="31"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="34"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="30"/>
-      <c r="H174" s="31"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="34"/>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="14" t="s">
@@ -5762,11 +5780,11 @@
         <v>279</v>
       </c>
       <c r="C175" s="5"/>
-      <c r="D175" s="30"/>
-      <c r="E175" s="31"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="34"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="31"/>
+      <c r="G175" s="33"/>
+      <c r="H175" s="34"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="14" t="s">
@@ -5776,11 +5794,11 @@
         <v>280</v>
       </c>
       <c r="C176" s="5"/>
-      <c r="D176" s="30"/>
-      <c r="E176" s="31"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="34"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="31"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="34"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="14" t="s">
@@ -5790,11 +5808,11 @@
         <v>285</v>
       </c>
       <c r="C177" s="5"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="31"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="34"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="30"/>
-      <c r="H177" s="31"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="34"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="14" t="s">
@@ -5804,11 +5822,11 @@
         <v>286</v>
       </c>
       <c r="C178" s="5"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="31"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="34"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="30"/>
-      <c r="H178" s="31"/>
+      <c r="G178" s="33"/>
+      <c r="H178" s="34"/>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="14" t="s">
@@ -5818,11 +5836,11 @@
         <v>287</v>
       </c>
       <c r="C179" s="5"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="31"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="34"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="30"/>
-      <c r="H179" s="31"/>
+      <c r="G179" s="33"/>
+      <c r="H179" s="34"/>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="14" t="s">
@@ -5832,11 +5850,11 @@
         <v>288</v>
       </c>
       <c r="C180" s="5"/>
-      <c r="D180" s="30"/>
-      <c r="E180" s="31"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="34"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="30"/>
-      <c r="H180" s="31"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="34"/>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="14" t="s">
@@ -5846,11 +5864,11 @@
         <v>298</v>
       </c>
       <c r="C181" s="5"/>
-      <c r="D181" s="30"/>
-      <c r="E181" s="31"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="34"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="30"/>
-      <c r="H181" s="31"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="34"/>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="14" t="s">
@@ -5860,11 +5878,11 @@
         <v>71</v>
       </c>
       <c r="C182" s="5"/>
-      <c r="D182" s="30"/>
-      <c r="E182" s="31"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="34"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="30"/>
-      <c r="H182" s="31"/>
+      <c r="G182" s="33"/>
+      <c r="H182" s="34"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="14" t="s">
@@ -5874,11 +5892,11 @@
         <v>299</v>
       </c>
       <c r="C183" s="5"/>
-      <c r="D183" s="30"/>
-      <c r="E183" s="31"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="34"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="30"/>
-      <c r="H183" s="31"/>
+      <c r="G183" s="33"/>
+      <c r="H183" s="34"/>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="14" t="s">
@@ -5888,11 +5906,11 @@
         <v>300</v>
       </c>
       <c r="C184" s="5"/>
-      <c r="D184" s="30"/>
-      <c r="E184" s="31"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="34"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="30"/>
-      <c r="H184" s="31"/>
+      <c r="G184" s="33"/>
+      <c r="H184" s="34"/>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="14" t="s">
@@ -5902,11 +5920,11 @@
         <v>143</v>
       </c>
       <c r="C185" s="5"/>
-      <c r="D185" s="30"/>
-      <c r="E185" s="31"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="34"/>
       <c r="F185" s="5"/>
-      <c r="G185" s="30"/>
-      <c r="H185" s="31"/>
+      <c r="G185" s="33"/>
+      <c r="H185" s="34"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="14" t="s">
@@ -5916,11 +5934,11 @@
         <v>301</v>
       </c>
       <c r="C186" s="5"/>
-      <c r="D186" s="30"/>
-      <c r="E186" s="31"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="34"/>
       <c r="F186" s="5"/>
-      <c r="G186" s="30"/>
-      <c r="H186" s="31"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="34"/>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="14" t="s">
@@ -5930,11 +5948,11 @@
         <v>302</v>
       </c>
       <c r="C187" s="5"/>
-      <c r="D187" s="30"/>
-      <c r="E187" s="31"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="34"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="30"/>
-      <c r="H187" s="31"/>
+      <c r="G187" s="33"/>
+      <c r="H187" s="34"/>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="14" t="s">
@@ -5944,11 +5962,11 @@
         <v>309</v>
       </c>
       <c r="C188" s="5"/>
-      <c r="D188" s="30"/>
-      <c r="E188" s="31"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="34"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="30"/>
-      <c r="H188" s="31"/>
+      <c r="G188" s="33"/>
+      <c r="H188" s="34"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="14" t="s">
@@ -5958,11 +5976,11 @@
         <v>310</v>
       </c>
       <c r="C189" s="5"/>
-      <c r="D189" s="30"/>
-      <c r="E189" s="31"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="34"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="30"/>
-      <c r="H189" s="31"/>
+      <c r="G189" s="33"/>
+      <c r="H189" s="34"/>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="14" t="s">
@@ -5970,11 +5988,11 @@
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="30"/>
-      <c r="E190" s="31"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="34"/>
       <c r="F190" s="5"/>
-      <c r="G190" s="30"/>
-      <c r="H190" s="31"/>
+      <c r="G190" s="33"/>
+      <c r="H190" s="34"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="14" t="s">
@@ -5982,11 +6000,11 @@
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="30"/>
-      <c r="E191" s="31"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="34"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="30"/>
-      <c r="H191" s="31"/>
+      <c r="G191" s="33"/>
+      <c r="H191" s="34"/>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="14" t="s">
@@ -5994,11 +6012,11 @@
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="30"/>
-      <c r="E192" s="31"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="34"/>
       <c r="F192" s="5"/>
-      <c r="G192" s="30"/>
-      <c r="H192" s="31"/>
+      <c r="G192" s="33"/>
+      <c r="H192" s="34"/>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="14" t="s">
@@ -6006,11 +6024,11 @@
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="31"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="34"/>
       <c r="F193" s="5"/>
-      <c r="G193" s="30"/>
-      <c r="H193" s="31"/>
+      <c r="G193" s="33"/>
+      <c r="H193" s="34"/>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="6" t="s">
@@ -6019,12 +6037,12 @@
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
       <c r="D194" s="35" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="E194" s="36"/>
       <c r="F194" s="5"/>
-      <c r="G194" s="30"/>
-      <c r="H194" s="31"/>
+      <c r="G194" s="33"/>
+      <c r="H194" s="34"/>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="14" t="s">
@@ -6034,11 +6052,11 @@
         <v>326</v>
       </c>
       <c r="C195" s="5"/>
-      <c r="D195" s="30"/>
-      <c r="E195" s="31"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="34"/>
       <c r="F195" s="5"/>
-      <c r="G195" s="30"/>
-      <c r="H195" s="31"/>
+      <c r="G195" s="33"/>
+      <c r="H195" s="34"/>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="14" t="s">
@@ -6048,11 +6066,11 @@
         <v>327</v>
       </c>
       <c r="C196" s="5"/>
-      <c r="D196" s="30"/>
-      <c r="E196" s="31"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="34"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="30"/>
-      <c r="H196" s="31"/>
+      <c r="G196" s="33"/>
+      <c r="H196" s="34"/>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="14" t="s">
@@ -6062,11 +6080,11 @@
         <v>328</v>
       </c>
       <c r="C197" s="5"/>
-      <c r="D197" s="30"/>
-      <c r="E197" s="31"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="34"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="30"/>
-      <c r="H197" s="31"/>
+      <c r="G197" s="33"/>
+      <c r="H197" s="34"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="14" t="s">
@@ -6076,11 +6094,11 @@
         <v>329</v>
       </c>
       <c r="C198" s="5"/>
-      <c r="D198" s="30"/>
-      <c r="E198" s="31"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="34"/>
       <c r="F198" s="5"/>
-      <c r="G198" s="30"/>
-      <c r="H198" s="31"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="34"/>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="14" t="s">
@@ -6090,11 +6108,11 @@
         <v>330</v>
       </c>
       <c r="C199" s="5"/>
-      <c r="D199" s="30"/>
-      <c r="E199" s="31"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="34"/>
       <c r="F199" s="5"/>
-      <c r="G199" s="30"/>
-      <c r="H199" s="31"/>
+      <c r="G199" s="33"/>
+      <c r="H199" s="34"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="14" t="s">
@@ -6104,11 +6122,11 @@
         <v>331</v>
       </c>
       <c r="C200" s="5"/>
-      <c r="D200" s="30"/>
-      <c r="E200" s="31"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="34"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="30"/>
-      <c r="H200" s="31"/>
+      <c r="G200" s="33"/>
+      <c r="H200" s="34"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="14" t="s">
@@ -6118,11 +6136,11 @@
         <v>332</v>
       </c>
       <c r="C201" s="5"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="31"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="34"/>
       <c r="F201" s="5"/>
-      <c r="G201" s="30"/>
-      <c r="H201" s="31"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="34"/>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="14" t="s">
@@ -6132,11 +6150,11 @@
         <v>333</v>
       </c>
       <c r="C202" s="5"/>
-      <c r="D202" s="30"/>
-      <c r="E202" s="31"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="34"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="30"/>
-      <c r="H202" s="31"/>
+      <c r="G202" s="33"/>
+      <c r="H202" s="34"/>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="14" t="s">
@@ -6146,11 +6164,11 @@
         <v>328</v>
       </c>
       <c r="C203" s="5"/>
-      <c r="D203" s="30"/>
-      <c r="E203" s="31"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="34"/>
       <c r="F203" s="5"/>
-      <c r="G203" s="30"/>
-      <c r="H203" s="31"/>
+      <c r="G203" s="33"/>
+      <c r="H203" s="34"/>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="14" t="s">
@@ -6160,11 +6178,11 @@
         <v>334</v>
       </c>
       <c r="C204" s="5"/>
-      <c r="D204" s="30"/>
-      <c r="E204" s="31"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="34"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="30"/>
-      <c r="H204" s="31"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="34"/>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="14" t="s">
@@ -6174,11 +6192,11 @@
         <v>335</v>
       </c>
       <c r="C205" s="5"/>
-      <c r="D205" s="30"/>
-      <c r="E205" s="31"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="34"/>
       <c r="F205" s="5"/>
-      <c r="G205" s="30"/>
-      <c r="H205" s="31"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="34"/>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="14" t="s">
@@ -6188,11 +6206,11 @@
         <v>331</v>
       </c>
       <c r="C206" s="5"/>
-      <c r="D206" s="30"/>
-      <c r="E206" s="31"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="34"/>
       <c r="F206" s="5"/>
-      <c r="G206" s="30"/>
-      <c r="H206" s="31"/>
+      <c r="G206" s="33"/>
+      <c r="H206" s="34"/>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="14" t="s">
@@ -6202,11 +6220,11 @@
         <v>336</v>
       </c>
       <c r="C207" s="5"/>
-      <c r="D207" s="30"/>
-      <c r="E207" s="31"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="34"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="30"/>
-      <c r="H207" s="31"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="34"/>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="14" t="s">
@@ -6216,11 +6234,11 @@
         <v>337</v>
       </c>
       <c r="C208" s="5"/>
-      <c r="D208" s="30"/>
-      <c r="E208" s="31"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="34"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="30"/>
-      <c r="H208" s="31"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="34"/>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="14" t="s">
@@ -6230,11 +6248,11 @@
         <v>352</v>
       </c>
       <c r="C209" s="5"/>
-      <c r="D209" s="30"/>
-      <c r="E209" s="31"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="34"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="30"/>
-      <c r="H209" s="31"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="34"/>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="14" t="s">
@@ -6244,11 +6262,11 @@
         <v>353</v>
       </c>
       <c r="C210" s="5"/>
-      <c r="D210" s="30"/>
-      <c r="E210" s="31"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="34"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="30"/>
-      <c r="H210" s="31"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="34"/>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="14" t="s">
@@ -6258,11 +6276,11 @@
         <v>105</v>
       </c>
       <c r="C211" s="5"/>
-      <c r="D211" s="30"/>
-      <c r="E211" s="31"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="34"/>
       <c r="F211" s="5"/>
-      <c r="G211" s="30"/>
-      <c r="H211" s="31"/>
+      <c r="G211" s="33"/>
+      <c r="H211" s="34"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="14" t="s">
@@ -6272,11 +6290,11 @@
         <v>354</v>
       </c>
       <c r="C212" s="5"/>
-      <c r="D212" s="30"/>
-      <c r="E212" s="31"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="34"/>
       <c r="F212" s="5"/>
-      <c r="G212" s="30"/>
-      <c r="H212" s="31"/>
+      <c r="G212" s="33"/>
+      <c r="H212" s="34"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="14" t="s">
@@ -6286,11 +6304,11 @@
         <v>355</v>
       </c>
       <c r="C213" s="5"/>
-      <c r="D213" s="30"/>
-      <c r="E213" s="31"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="34"/>
       <c r="F213" s="5"/>
-      <c r="G213" s="30"/>
-      <c r="H213" s="31"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="34"/>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="14" t="s">
@@ -6300,11 +6318,11 @@
         <v>71</v>
       </c>
       <c r="C214" s="5"/>
-      <c r="D214" s="30"/>
-      <c r="E214" s="31"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="34"/>
       <c r="F214" s="5"/>
-      <c r="G214" s="30"/>
-      <c r="H214" s="31"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="34"/>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="14" t="s">
@@ -6314,11 +6332,11 @@
         <v>356</v>
       </c>
       <c r="C215" s="5"/>
-      <c r="D215" s="30"/>
-      <c r="E215" s="31"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="34"/>
       <c r="F215" s="5"/>
-      <c r="G215" s="30"/>
-      <c r="H215" s="31"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="34"/>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="14" t="s">
@@ -6328,11 +6346,11 @@
         <v>357</v>
       </c>
       <c r="C216" s="5"/>
-      <c r="D216" s="30"/>
-      <c r="E216" s="31"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="34"/>
       <c r="F216" s="5"/>
-      <c r="G216" s="30"/>
-      <c r="H216" s="31"/>
+      <c r="G216" s="33"/>
+      <c r="H216" s="34"/>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="14" t="s">
@@ -6342,11 +6360,11 @@
         <v>105</v>
       </c>
       <c r="C217" s="5"/>
-      <c r="D217" s="30"/>
-      <c r="E217" s="31"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="34"/>
       <c r="F217" s="5"/>
-      <c r="G217" s="30"/>
-      <c r="H217" s="31"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="34"/>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="14" t="s">
@@ -6356,11 +6374,11 @@
         <v>354</v>
       </c>
       <c r="C218" s="5"/>
-      <c r="D218" s="30"/>
-      <c r="E218" s="31"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="34"/>
       <c r="F218" s="5"/>
-      <c r="G218" s="30"/>
-      <c r="H218" s="31"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="34"/>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="14" t="s">
@@ -6370,11 +6388,11 @@
         <v>355</v>
       </c>
       <c r="C219" s="5"/>
-      <c r="D219" s="30"/>
-      <c r="E219" s="31"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="34"/>
       <c r="F219" s="5"/>
-      <c r="G219" s="30"/>
-      <c r="H219" s="31"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="34"/>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="14" t="s">
@@ -6384,11 +6402,11 @@
         <v>71</v>
       </c>
       <c r="C220" s="5"/>
-      <c r="D220" s="30"/>
-      <c r="E220" s="31"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="34"/>
       <c r="F220" s="5"/>
-      <c r="G220" s="30"/>
-      <c r="H220" s="31"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="34"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="14" t="s">
@@ -6398,11 +6416,11 @@
         <v>356</v>
       </c>
       <c r="C221" s="5"/>
-      <c r="D221" s="30"/>
-      <c r="E221" s="31"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="34"/>
       <c r="F221" s="5"/>
-      <c r="G221" s="30"/>
-      <c r="H221" s="31"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="34"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="14" t="s">
@@ -6412,11 +6430,11 @@
         <v>357</v>
       </c>
       <c r="C222" s="5"/>
-      <c r="D222" s="30"/>
-      <c r="E222" s="31"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="34"/>
       <c r="F222" s="5"/>
-      <c r="G222" s="30"/>
-      <c r="H222" s="31"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="34"/>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="14" t="s">
@@ -6426,11 +6444,11 @@
         <v>372</v>
       </c>
       <c r="C223" s="5"/>
-      <c r="D223" s="30"/>
-      <c r="E223" s="31"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="34"/>
       <c r="F223" s="5"/>
-      <c r="G223" s="30"/>
-      <c r="H223" s="31"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="34"/>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="14" t="s">
@@ -6440,11 +6458,11 @@
         <v>373</v>
       </c>
       <c r="C224" s="5"/>
-      <c r="D224" s="30"/>
-      <c r="E224" s="31"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="34"/>
       <c r="F224" s="5"/>
-      <c r="G224" s="30"/>
-      <c r="H224" s="31"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="34"/>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="14" t="s">
@@ -6454,11 +6472,11 @@
         <v>71</v>
       </c>
       <c r="C225" s="5"/>
-      <c r="D225" s="30"/>
-      <c r="E225" s="31"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="34"/>
       <c r="F225" s="5"/>
-      <c r="G225" s="30"/>
-      <c r="H225" s="31"/>
+      <c r="G225" s="33"/>
+      <c r="H225" s="34"/>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="14" t="s">
@@ -6466,11 +6484,11 @@
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="5"/>
-      <c r="D226" s="30"/>
-      <c r="E226" s="31"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="34"/>
       <c r="F226" s="5"/>
-      <c r="G226" s="30"/>
-      <c r="H226" s="31"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="34"/>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="14" t="s">
@@ -6478,11 +6496,11 @@
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="5"/>
-      <c r="D227" s="30"/>
-      <c r="E227" s="31"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="34"/>
       <c r="F227" s="5"/>
-      <c r="G227" s="30"/>
-      <c r="H227" s="31"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="34"/>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="14" t="s">
@@ -6492,11 +6510,11 @@
         <v>143</v>
       </c>
       <c r="C228" s="5"/>
-      <c r="D228" s="30"/>
-      <c r="E228" s="31"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="34"/>
       <c r="F228" s="5"/>
-      <c r="G228" s="30"/>
-      <c r="H228" s="31"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="34"/>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="14" t="s">
@@ -6504,11 +6522,11 @@
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="5"/>
-      <c r="D229" s="30"/>
-      <c r="E229" s="31"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="34"/>
       <c r="F229" s="5"/>
-      <c r="G229" s="30"/>
-      <c r="H229" s="31"/>
+      <c r="G229" s="33"/>
+      <c r="H229" s="34"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="14" t="s">
@@ -6516,11 +6534,11 @@
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="5"/>
-      <c r="D230" s="30"/>
-      <c r="E230" s="31"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="34"/>
       <c r="F230" s="5"/>
-      <c r="G230" s="30"/>
-      <c r="H230" s="31"/>
+      <c r="G230" s="33"/>
+      <c r="H230" s="34"/>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="14" t="s">
@@ -6530,11 +6548,11 @@
         <v>128</v>
       </c>
       <c r="C231" s="5"/>
-      <c r="D231" s="30"/>
-      <c r="E231" s="31"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="34"/>
       <c r="F231" s="5"/>
-      <c r="G231" s="30"/>
-      <c r="H231" s="31"/>
+      <c r="G231" s="33"/>
+      <c r="H231" s="34"/>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="14" t="s">
@@ -6542,11 +6560,11 @@
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="5"/>
-      <c r="D232" s="30"/>
-      <c r="E232" s="31"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="34"/>
       <c r="F232" s="5"/>
-      <c r="G232" s="30"/>
-      <c r="H232" s="31"/>
+      <c r="G232" s="33"/>
+      <c r="H232" s="34"/>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="14" t="s">
@@ -6554,11 +6572,11 @@
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="5"/>
-      <c r="D233" s="30"/>
-      <c r="E233" s="31"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="34"/>
       <c r="F233" s="5"/>
-      <c r="G233" s="30"/>
-      <c r="H233" s="31"/>
+      <c r="G233" s="33"/>
+      <c r="H233" s="34"/>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="14" t="s">
@@ -6568,11 +6586,11 @@
         <v>128</v>
       </c>
       <c r="C234" s="5"/>
-      <c r="D234" s="30"/>
-      <c r="E234" s="31"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="34"/>
       <c r="F234" s="5"/>
-      <c r="G234" s="30"/>
-      <c r="H234" s="31"/>
+      <c r="G234" s="33"/>
+      <c r="H234" s="34"/>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="14" t="s">
@@ -6580,11 +6598,11 @@
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="5"/>
-      <c r="D235" s="30"/>
-      <c r="E235" s="31"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="34"/>
       <c r="F235" s="5"/>
-      <c r="G235" s="30"/>
-      <c r="H235" s="31"/>
+      <c r="G235" s="33"/>
+      <c r="H235" s="34"/>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="14" t="s">
@@ -6592,11 +6610,11 @@
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="5"/>
-      <c r="D236" s="30"/>
-      <c r="E236" s="31"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="34"/>
       <c r="F236" s="5"/>
-      <c r="G236" s="30"/>
-      <c r="H236" s="31"/>
+      <c r="G236" s="33"/>
+      <c r="H236" s="34"/>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="14" t="s">
@@ -6606,11 +6624,11 @@
         <v>388</v>
       </c>
       <c r="C237" s="5"/>
-      <c r="D237" s="30"/>
-      <c r="E237" s="31"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="34"/>
       <c r="F237" s="5"/>
-      <c r="G237" s="30"/>
-      <c r="H237" s="31"/>
+      <c r="G237" s="33"/>
+      <c r="H237" s="34"/>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="14" t="s">
@@ -6620,11 +6638,11 @@
         <v>389</v>
       </c>
       <c r="C238" s="5"/>
-      <c r="D238" s="30"/>
-      <c r="E238" s="31"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="34"/>
       <c r="F238" s="5"/>
-      <c r="G238" s="30"/>
-      <c r="H238" s="31"/>
+      <c r="G238" s="33"/>
+      <c r="H238" s="34"/>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="14" t="s">
@@ -6634,11 +6652,11 @@
         <v>390</v>
       </c>
       <c r="C239" s="5"/>
-      <c r="D239" s="30"/>
-      <c r="E239" s="31"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="34"/>
       <c r="F239" s="5"/>
-      <c r="G239" s="30"/>
-      <c r="H239" s="31"/>
+      <c r="G239" s="33"/>
+      <c r="H239" s="34"/>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="14" t="s">
@@ -6648,11 +6666,11 @@
         <v>391</v>
       </c>
       <c r="C240" s="5"/>
-      <c r="D240" s="30"/>
-      <c r="E240" s="31"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="34"/>
       <c r="F240" s="5"/>
-      <c r="G240" s="30"/>
-      <c r="H240" s="31"/>
+      <c r="G240" s="33"/>
+      <c r="H240" s="34"/>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="14" t="s">
@@ -6662,11 +6680,11 @@
         <v>392</v>
       </c>
       <c r="C241" s="5"/>
-      <c r="D241" s="30"/>
-      <c r="E241" s="31"/>
+      <c r="D241" s="33"/>
+      <c r="E241" s="34"/>
       <c r="F241" s="5"/>
-      <c r="G241" s="30"/>
-      <c r="H241" s="31"/>
+      <c r="G241" s="33"/>
+      <c r="H241" s="34"/>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="14" t="s">
@@ -6676,11 +6694,11 @@
         <v>38</v>
       </c>
       <c r="C242" s="5"/>
-      <c r="D242" s="30"/>
-      <c r="E242" s="31"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="34"/>
       <c r="F242" s="5"/>
-      <c r="G242" s="30"/>
-      <c r="H242" s="31"/>
+      <c r="G242" s="33"/>
+      <c r="H242" s="34"/>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="14" t="s">
@@ -6690,11 +6708,11 @@
         <v>393</v>
       </c>
       <c r="C243" s="5"/>
-      <c r="D243" s="30"/>
-      <c r="E243" s="31"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="34"/>
       <c r="F243" s="5"/>
-      <c r="G243" s="30"/>
-      <c r="H243" s="31"/>
+      <c r="G243" s="33"/>
+      <c r="H243" s="34"/>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="14" t="s">
@@ -6704,11 +6722,11 @@
         <v>394</v>
       </c>
       <c r="C244" s="5"/>
-      <c r="D244" s="30"/>
-      <c r="E244" s="31"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="34"/>
       <c r="F244" s="5"/>
-      <c r="G244" s="30"/>
-      <c r="H244" s="31"/>
+      <c r="G244" s="33"/>
+      <c r="H244" s="34"/>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="14" t="s">
@@ -6718,11 +6736,11 @@
         <v>65</v>
       </c>
       <c r="C245" s="5"/>
-      <c r="D245" s="30"/>
-      <c r="E245" s="31"/>
+      <c r="D245" s="33"/>
+      <c r="E245" s="34"/>
       <c r="F245" s="5"/>
-      <c r="G245" s="30"/>
-      <c r="H245" s="31"/>
+      <c r="G245" s="33"/>
+      <c r="H245" s="34"/>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="14" t="s">
@@ -6732,11 +6750,11 @@
         <v>395</v>
       </c>
       <c r="C246" s="5"/>
-      <c r="D246" s="30"/>
-      <c r="E246" s="31"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="34"/>
       <c r="F246" s="5"/>
-      <c r="G246" s="30"/>
-      <c r="H246" s="31"/>
+      <c r="G246" s="33"/>
+      <c r="H246" s="34"/>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="14" t="s">
@@ -6746,11 +6764,11 @@
         <v>396</v>
       </c>
       <c r="C247" s="5"/>
-      <c r="D247" s="30"/>
-      <c r="E247" s="31"/>
+      <c r="D247" s="33"/>
+      <c r="E247" s="34"/>
       <c r="F247" s="5"/>
-      <c r="G247" s="30"/>
-      <c r="H247" s="31"/>
+      <c r="G247" s="33"/>
+      <c r="H247" s="34"/>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="14" t="s">
@@ -6760,11 +6778,11 @@
         <v>65</v>
       </c>
       <c r="C248" s="5"/>
-      <c r="D248" s="30"/>
-      <c r="E248" s="31"/>
+      <c r="D248" s="33"/>
+      <c r="E248" s="34"/>
       <c r="F248" s="5"/>
-      <c r="G248" s="30"/>
-      <c r="H248" s="31"/>
+      <c r="G248" s="33"/>
+      <c r="H248" s="34"/>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="14" t="s">
@@ -6774,11 +6792,11 @@
         <v>397</v>
       </c>
       <c r="C249" s="5"/>
-      <c r="D249" s="30"/>
-      <c r="E249" s="31"/>
+      <c r="D249" s="33"/>
+      <c r="E249" s="34"/>
       <c r="F249" s="5"/>
-      <c r="G249" s="30"/>
-      <c r="H249" s="31"/>
+      <c r="G249" s="33"/>
+      <c r="H249" s="34"/>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="14" t="s">
@@ -6788,11 +6806,11 @@
         <v>398</v>
       </c>
       <c r="C250" s="5"/>
-      <c r="D250" s="30"/>
-      <c r="E250" s="31"/>
+      <c r="D250" s="33"/>
+      <c r="E250" s="34"/>
       <c r="F250" s="5"/>
-      <c r="G250" s="30"/>
-      <c r="H250" s="31"/>
+      <c r="G250" s="33"/>
+      <c r="H250" s="34"/>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="6" t="s">
@@ -6803,12 +6821,12 @@
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="35" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="E251" s="36"/>
       <c r="F251" s="5"/>
-      <c r="G251" s="30"/>
-      <c r="H251" s="31"/>
+      <c r="G251" s="33"/>
+      <c r="H251" s="34"/>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="8" t="s">
@@ -6818,13 +6836,15 @@
         <v>403</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>689</v>
-      </c>
-      <c r="D252" s="30"/>
-      <c r="E252" s="31"/>
+        <v>692</v>
+      </c>
+      <c r="D252" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="E252" s="34"/>
       <c r="F252" s="5"/>
-      <c r="G252" s="30"/>
-      <c r="H252" s="31"/>
+      <c r="G252" s="33"/>
+      <c r="H252" s="34"/>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="6" t="s">
@@ -6834,13 +6854,13 @@
         <v>404</v>
       </c>
       <c r="C253" s="5"/>
-      <c r="D253" s="35" t="s">
-        <v>691</v>
+      <c r="D253" s="35">
+        <v>1</v>
       </c>
       <c r="E253" s="36"/>
       <c r="F253" s="5"/>
-      <c r="G253" s="30"/>
-      <c r="H253" s="31"/>
+      <c r="G253" s="33"/>
+      <c r="H253" s="34"/>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="14" t="s">
@@ -6850,11 +6870,11 @@
         <v>419</v>
       </c>
       <c r="C254" s="5"/>
-      <c r="D254" s="30"/>
-      <c r="E254" s="31"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="34"/>
       <c r="F254" s="5"/>
-      <c r="G254" s="30"/>
-      <c r="H254" s="31"/>
+      <c r="G254" s="33"/>
+      <c r="H254" s="34"/>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="14" t="s">
@@ -6864,11 +6884,11 @@
         <v>420</v>
       </c>
       <c r="C255" s="5"/>
-      <c r="D255" s="30"/>
-      <c r="E255" s="31"/>
+      <c r="D255" s="33"/>
+      <c r="E255" s="34"/>
       <c r="F255" s="5"/>
-      <c r="G255" s="30"/>
-      <c r="H255" s="31"/>
+      <c r="G255" s="33"/>
+      <c r="H255" s="34"/>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="14" t="s">
@@ -6878,11 +6898,11 @@
         <v>65</v>
       </c>
       <c r="C256" s="5"/>
-      <c r="D256" s="30"/>
-      <c r="E256" s="31"/>
+      <c r="D256" s="33"/>
+      <c r="E256" s="34"/>
       <c r="F256" s="5"/>
-      <c r="G256" s="30"/>
-      <c r="H256" s="31"/>
+      <c r="G256" s="33"/>
+      <c r="H256" s="34"/>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="14" t="s">
@@ -6892,11 +6912,11 @@
         <v>421</v>
       </c>
       <c r="C257" s="5"/>
-      <c r="D257" s="30"/>
-      <c r="E257" s="31"/>
+      <c r="D257" s="33"/>
+      <c r="E257" s="34"/>
       <c r="F257" s="5"/>
-      <c r="G257" s="30"/>
-      <c r="H257" s="31"/>
+      <c r="G257" s="33"/>
+      <c r="H257" s="34"/>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="14" t="s">
@@ -6906,11 +6926,11 @@
         <v>422</v>
       </c>
       <c r="C258" s="5"/>
-      <c r="D258" s="30"/>
-      <c r="E258" s="31"/>
+      <c r="D258" s="33"/>
+      <c r="E258" s="34"/>
       <c r="F258" s="5"/>
-      <c r="G258" s="30"/>
-      <c r="H258" s="31"/>
+      <c r="G258" s="33"/>
+      <c r="H258" s="34"/>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="14" t="s">
@@ -6920,11 +6940,11 @@
         <v>65</v>
       </c>
       <c r="C259" s="5"/>
-      <c r="D259" s="30"/>
-      <c r="E259" s="31"/>
+      <c r="D259" s="33"/>
+      <c r="E259" s="34"/>
       <c r="F259" s="5"/>
-      <c r="G259" s="30"/>
-      <c r="H259" s="31"/>
+      <c r="G259" s="33"/>
+      <c r="H259" s="34"/>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="14" t="s">
@@ -6932,11 +6952,11 @@
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="5"/>
-      <c r="D260" s="30"/>
-      <c r="E260" s="31"/>
+      <c r="D260" s="33"/>
+      <c r="E260" s="34"/>
       <c r="F260" s="5"/>
-      <c r="G260" s="30"/>
-      <c r="H260" s="31"/>
+      <c r="G260" s="33"/>
+      <c r="H260" s="34"/>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="14" t="s">
@@ -6944,11 +6964,11 @@
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="5"/>
-      <c r="D261" s="30"/>
-      <c r="E261" s="31"/>
+      <c r="D261" s="33"/>
+      <c r="E261" s="34"/>
       <c r="F261" s="5"/>
-      <c r="G261" s="30"/>
-      <c r="H261" s="31"/>
+      <c r="G261" s="33"/>
+      <c r="H261" s="34"/>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="14" t="s">
@@ -6958,11 +6978,11 @@
         <v>65</v>
       </c>
       <c r="C262" s="5"/>
-      <c r="D262" s="30"/>
-      <c r="E262" s="31"/>
+      <c r="D262" s="33"/>
+      <c r="E262" s="34"/>
       <c r="F262" s="5"/>
-      <c r="G262" s="30"/>
-      <c r="H262" s="31"/>
+      <c r="G262" s="33"/>
+      <c r="H262" s="34"/>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="14" t="s">
@@ -6972,11 +6992,11 @@
         <v>423</v>
       </c>
       <c r="C263" s="5"/>
-      <c r="D263" s="30"/>
-      <c r="E263" s="31"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="34"/>
       <c r="F263" s="5"/>
-      <c r="G263" s="30"/>
-      <c r="H263" s="31"/>
+      <c r="G263" s="33"/>
+      <c r="H263" s="34"/>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="14" t="s">
@@ -6986,11 +7006,11 @@
         <v>424</v>
       </c>
       <c r="C264" s="5"/>
-      <c r="D264" s="30"/>
-      <c r="E264" s="31"/>
+      <c r="D264" s="33"/>
+      <c r="E264" s="34"/>
       <c r="F264" s="5"/>
-      <c r="G264" s="30"/>
-      <c r="H264" s="31"/>
+      <c r="G264" s="33"/>
+      <c r="H264" s="34"/>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="14" t="s">
@@ -7000,11 +7020,11 @@
         <v>65</v>
       </c>
       <c r="C265" s="5"/>
-      <c r="D265" s="30"/>
-      <c r="E265" s="31"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="34"/>
       <c r="F265" s="5"/>
-      <c r="G265" s="30"/>
-      <c r="H265" s="31"/>
+      <c r="G265" s="33"/>
+      <c r="H265" s="34"/>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="14" t="s">
@@ -7012,11 +7032,11 @@
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="5"/>
-      <c r="D266" s="30"/>
-      <c r="E266" s="31"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="34"/>
       <c r="F266" s="5"/>
-      <c r="G266" s="30"/>
-      <c r="H266" s="31"/>
+      <c r="G266" s="33"/>
+      <c r="H266" s="34"/>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="14" t="s">
@@ -7024,11 +7044,11 @@
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="5"/>
-      <c r="D267" s="30"/>
-      <c r="E267" s="31"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="34"/>
       <c r="F267" s="5"/>
-      <c r="G267" s="30"/>
-      <c r="H267" s="31"/>
+      <c r="G267" s="33"/>
+      <c r="H267" s="34"/>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="14" t="s">
@@ -7038,11 +7058,11 @@
         <v>439</v>
       </c>
       <c r="C268" s="5"/>
-      <c r="D268" s="30"/>
-      <c r="E268" s="31"/>
+      <c r="D268" s="33"/>
+      <c r="E268" s="34"/>
       <c r="F268" s="5"/>
-      <c r="G268" s="30"/>
-      <c r="H268" s="31"/>
+      <c r="G268" s="33"/>
+      <c r="H268" s="34"/>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="14" t="s">
@@ -7052,11 +7072,11 @@
         <v>440</v>
       </c>
       <c r="C269" s="5"/>
-      <c r="D269" s="30"/>
-      <c r="E269" s="31"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="34"/>
       <c r="F269" s="5"/>
-      <c r="G269" s="30"/>
-      <c r="H269" s="31"/>
+      <c r="G269" s="33"/>
+      <c r="H269" s="34"/>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="14" t="s">
@@ -7066,11 +7086,11 @@
         <v>65</v>
       </c>
       <c r="C270" s="5"/>
-      <c r="D270" s="30"/>
-      <c r="E270" s="31"/>
+      <c r="D270" s="33"/>
+      <c r="E270" s="34"/>
       <c r="F270" s="5"/>
-      <c r="G270" s="30"/>
-      <c r="H270" s="31"/>
+      <c r="G270" s="33"/>
+      <c r="H270" s="34"/>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="14" t="s">
@@ -7080,11 +7100,11 @@
         <v>441</v>
       </c>
       <c r="C271" s="5"/>
-      <c r="D271" s="30"/>
-      <c r="E271" s="31"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="34"/>
       <c r="F271" s="5"/>
-      <c r="G271" s="30"/>
-      <c r="H271" s="31"/>
+      <c r="G271" s="33"/>
+      <c r="H271" s="34"/>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="14" t="s">
@@ -7094,11 +7114,11 @@
         <v>442</v>
       </c>
       <c r="C272" s="5"/>
-      <c r="D272" s="30"/>
-      <c r="E272" s="31"/>
+      <c r="D272" s="33"/>
+      <c r="E272" s="34"/>
       <c r="F272" s="5"/>
-      <c r="G272" s="30"/>
-      <c r="H272" s="31"/>
+      <c r="G272" s="33"/>
+      <c r="H272" s="34"/>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="14" t="s">
@@ -7108,11 +7128,11 @@
         <v>65</v>
       </c>
       <c r="C273" s="5"/>
-      <c r="D273" s="30"/>
-      <c r="E273" s="31"/>
+      <c r="D273" s="33"/>
+      <c r="E273" s="34"/>
       <c r="F273" s="5"/>
-      <c r="G273" s="30"/>
-      <c r="H273" s="31"/>
+      <c r="G273" s="33"/>
+      <c r="H273" s="34"/>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="14" t="s">
@@ -7122,11 +7142,11 @@
         <v>443</v>
       </c>
       <c r="C274" s="5"/>
-      <c r="D274" s="30"/>
-      <c r="E274" s="31"/>
+      <c r="D274" s="33"/>
+      <c r="E274" s="34"/>
       <c r="F274" s="5"/>
-      <c r="G274" s="30"/>
-      <c r="H274" s="31"/>
+      <c r="G274" s="33"/>
+      <c r="H274" s="34"/>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="14" t="s">
@@ -7136,11 +7156,11 @@
         <v>444</v>
       </c>
       <c r="C275" s="5"/>
-      <c r="D275" s="30"/>
-      <c r="E275" s="31"/>
+      <c r="D275" s="33"/>
+      <c r="E275" s="34"/>
       <c r="F275" s="5"/>
-      <c r="G275" s="30"/>
-      <c r="H275" s="31"/>
+      <c r="G275" s="33"/>
+      <c r="H275" s="34"/>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="14" t="s">
@@ -7150,11 +7170,11 @@
         <v>65</v>
       </c>
       <c r="C276" s="5"/>
-      <c r="D276" s="30"/>
-      <c r="E276" s="31"/>
+      <c r="D276" s="33"/>
+      <c r="E276" s="34"/>
       <c r="F276" s="5"/>
-      <c r="G276" s="30"/>
-      <c r="H276" s="31"/>
+      <c r="G276" s="33"/>
+      <c r="H276" s="34"/>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="14" t="s">
@@ -7164,11 +7184,11 @@
         <v>445</v>
       </c>
       <c r="C277" s="5"/>
-      <c r="D277" s="30"/>
-      <c r="E277" s="31"/>
+      <c r="D277" s="33"/>
+      <c r="E277" s="34"/>
       <c r="F277" s="5"/>
-      <c r="G277" s="30"/>
-      <c r="H277" s="31"/>
+      <c r="G277" s="33"/>
+      <c r="H277" s="34"/>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="14" t="s">
@@ -7178,11 +7198,11 @@
         <v>446</v>
       </c>
       <c r="C278" s="5"/>
-      <c r="D278" s="30"/>
-      <c r="E278" s="31"/>
+      <c r="D278" s="33"/>
+      <c r="E278" s="34"/>
       <c r="F278" s="5"/>
-      <c r="G278" s="30"/>
-      <c r="H278" s="31"/>
+      <c r="G278" s="33"/>
+      <c r="H278" s="34"/>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="14" t="s">
@@ -7192,11 +7212,11 @@
         <v>38</v>
       </c>
       <c r="C279" s="5"/>
-      <c r="D279" s="30"/>
-      <c r="E279" s="31"/>
+      <c r="D279" s="33"/>
+      <c r="E279" s="34"/>
       <c r="F279" s="5"/>
-      <c r="G279" s="30"/>
-      <c r="H279" s="31"/>
+      <c r="G279" s="33"/>
+      <c r="H279" s="34"/>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="14" t="s">
@@ -7206,11 +7226,11 @@
         <v>443</v>
       </c>
       <c r="C280" s="5"/>
-      <c r="D280" s="30"/>
-      <c r="E280" s="31"/>
+      <c r="D280" s="33"/>
+      <c r="E280" s="34"/>
       <c r="F280" s="5"/>
-      <c r="G280" s="30"/>
-      <c r="H280" s="31"/>
+      <c r="G280" s="33"/>
+      <c r="H280" s="34"/>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="14" t="s">
@@ -7220,25 +7240,25 @@
         <v>447</v>
       </c>
       <c r="C281" s="5"/>
-      <c r="D281" s="30"/>
-      <c r="E281" s="31"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="34"/>
       <c r="F281" s="5"/>
-      <c r="G281" s="30"/>
-      <c r="H281" s="31"/>
+      <c r="G281" s="33"/>
+      <c r="H281" s="34"/>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="34" t="s">
+      <c r="A282" s="28" t="s">
         <v>448</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>449</v>
       </c>
       <c r="C282" s="5"/>
-      <c r="D282" s="30"/>
-      <c r="E282" s="31"/>
+      <c r="D282" s="33"/>
+      <c r="E282" s="34"/>
       <c r="F282" s="5"/>
-      <c r="G282" s="30"/>
-      <c r="H282" s="31"/>
+      <c r="G282" s="33"/>
+      <c r="H282" s="34"/>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="6" t="s">
@@ -7249,12 +7269,12 @@
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="35" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E283" s="36"/>
       <c r="F283" s="5"/>
-      <c r="G283" s="30"/>
-      <c r="H283" s="31"/>
+      <c r="G283" s="33"/>
+      <c r="H283" s="34"/>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="6" t="s">
@@ -7265,12 +7285,12 @@
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="35" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E284" s="36"/>
       <c r="F284" s="5"/>
-      <c r="G284" s="30"/>
-      <c r="H284" s="31"/>
+      <c r="G284" s="33"/>
+      <c r="H284" s="34"/>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="6" t="s">
@@ -7281,12 +7301,12 @@
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="35" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E285" s="36"/>
       <c r="F285" s="5"/>
-      <c r="G285" s="30"/>
-      <c r="H285" s="31"/>
+      <c r="G285" s="33"/>
+      <c r="H285" s="34"/>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="6" t="s">
@@ -7297,12 +7317,12 @@
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="35" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E286" s="36"/>
       <c r="F286" s="5"/>
-      <c r="G286" s="30"/>
-      <c r="H286" s="31"/>
+      <c r="G286" s="33"/>
+      <c r="H286" s="34"/>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="6" t="s">
@@ -7312,13 +7332,13 @@
         <v>404</v>
       </c>
       <c r="C287" s="5"/>
-      <c r="D287" s="35" t="s">
-        <v>691</v>
+      <c r="D287" s="35">
+        <v>0</v>
       </c>
       <c r="E287" s="36"/>
       <c r="F287" s="5"/>
-      <c r="G287" s="30"/>
-      <c r="H287" s="31"/>
+      <c r="G287" s="33"/>
+      <c r="H287" s="34"/>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="14" t="s">
@@ -7328,11 +7348,11 @@
         <v>462</v>
       </c>
       <c r="C288" s="5"/>
-      <c r="D288" s="30"/>
-      <c r="E288" s="31"/>
+      <c r="D288" s="33"/>
+      <c r="E288" s="34"/>
       <c r="F288" s="5"/>
-      <c r="G288" s="30"/>
-      <c r="H288" s="31"/>
+      <c r="G288" s="33"/>
+      <c r="H288" s="34"/>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="14" t="s">
@@ -7342,11 +7362,11 @@
         <v>328</v>
       </c>
       <c r="C289" s="5"/>
-      <c r="D289" s="30"/>
-      <c r="E289" s="31"/>
+      <c r="D289" s="33"/>
+      <c r="E289" s="34"/>
       <c r="F289" s="5"/>
-      <c r="G289" s="30"/>
-      <c r="H289" s="31"/>
+      <c r="G289" s="33"/>
+      <c r="H289" s="34"/>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="14" t="s">
@@ -7356,11 +7376,11 @@
         <v>463</v>
       </c>
       <c r="C290" s="5"/>
-      <c r="D290" s="30"/>
-      <c r="E290" s="31"/>
+      <c r="D290" s="33"/>
+      <c r="E290" s="34"/>
       <c r="F290" s="5"/>
-      <c r="G290" s="30"/>
-      <c r="H290" s="31"/>
+      <c r="G290" s="33"/>
+      <c r="H290" s="34"/>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="14" t="s">
@@ -7370,11 +7390,11 @@
         <v>464</v>
       </c>
       <c r="C291" s="5"/>
-      <c r="D291" s="30"/>
-      <c r="E291" s="31"/>
+      <c r="D291" s="33"/>
+      <c r="E291" s="34"/>
       <c r="F291" s="5"/>
-      <c r="G291" s="30"/>
-      <c r="H291" s="31"/>
+      <c r="G291" s="33"/>
+      <c r="H291" s="34"/>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="14" t="s">
@@ -7384,11 +7404,11 @@
         <v>465</v>
       </c>
       <c r="C292" s="5"/>
-      <c r="D292" s="30"/>
-      <c r="E292" s="31"/>
+      <c r="D292" s="33"/>
+      <c r="E292" s="34"/>
       <c r="F292" s="5"/>
-      <c r="G292" s="30"/>
-      <c r="H292" s="31"/>
+      <c r="G292" s="33"/>
+      <c r="H292" s="34"/>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="14" t="s">
@@ -7398,11 +7418,11 @@
         <v>468</v>
       </c>
       <c r="C293" s="5"/>
-      <c r="D293" s="30"/>
-      <c r="E293" s="31"/>
+      <c r="D293" s="33"/>
+      <c r="E293" s="34"/>
       <c r="F293" s="5"/>
-      <c r="G293" s="30"/>
-      <c r="H293" s="31"/>
+      <c r="G293" s="33"/>
+      <c r="H293" s="34"/>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="14" t="s">
@@ -7412,11 +7432,11 @@
         <v>469</v>
       </c>
       <c r="C294" s="5"/>
-      <c r="D294" s="30"/>
-      <c r="E294" s="31"/>
+      <c r="D294" s="33"/>
+      <c r="E294" s="34"/>
       <c r="F294" s="5"/>
-      <c r="G294" s="30"/>
-      <c r="H294" s="31"/>
+      <c r="G294" s="33"/>
+      <c r="H294" s="34"/>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="14" t="s">
@@ -7426,11 +7446,11 @@
         <v>470</v>
       </c>
       <c r="C295" s="5"/>
-      <c r="D295" s="30"/>
-      <c r="E295" s="31"/>
+      <c r="D295" s="33"/>
+      <c r="E295" s="34"/>
       <c r="F295" s="5"/>
-      <c r="G295" s="30"/>
-      <c r="H295" s="31"/>
+      <c r="G295" s="33"/>
+      <c r="H295" s="34"/>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="6" t="s">
@@ -7440,13 +7460,13 @@
         <v>404</v>
       </c>
       <c r="C296" s="5"/>
-      <c r="D296" s="35" t="s">
-        <v>691</v>
+      <c r="D296" s="35">
+        <v>1</v>
       </c>
       <c r="E296" s="36"/>
       <c r="F296" s="5"/>
-      <c r="G296" s="30"/>
-      <c r="H296" s="31"/>
+      <c r="G296" s="33"/>
+      <c r="H296" s="34"/>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="14" t="s">
@@ -7454,11 +7474,11 @@
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="5"/>
-      <c r="D297" s="30"/>
-      <c r="E297" s="31"/>
+      <c r="D297" s="33"/>
+      <c r="E297" s="34"/>
       <c r="F297" s="5"/>
-      <c r="G297" s="30"/>
-      <c r="H297" s="31"/>
+      <c r="G297" s="33"/>
+      <c r="H297" s="34"/>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="14" t="s">
@@ -7466,11 +7486,11 @@
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="5"/>
-      <c r="D298" s="30"/>
-      <c r="E298" s="31"/>
+      <c r="D298" s="33"/>
+      <c r="E298" s="34"/>
       <c r="F298" s="5"/>
-      <c r="G298" s="30"/>
-      <c r="H298" s="31"/>
+      <c r="G298" s="33"/>
+      <c r="H298" s="34"/>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="14" t="s">
@@ -7478,11 +7498,11 @@
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="5"/>
-      <c r="D299" s="30"/>
-      <c r="E299" s="31"/>
+      <c r="D299" s="33"/>
+      <c r="E299" s="34"/>
       <c r="F299" s="5"/>
-      <c r="G299" s="30"/>
-      <c r="H299" s="31"/>
+      <c r="G299" s="33"/>
+      <c r="H299" s="34"/>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="14" t="s">
@@ -7490,11 +7510,11 @@
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="5"/>
-      <c r="D300" s="30"/>
-      <c r="E300" s="31"/>
+      <c r="D300" s="33"/>
+      <c r="E300" s="34"/>
       <c r="F300" s="5"/>
-      <c r="G300" s="30"/>
-      <c r="H300" s="31"/>
+      <c r="G300" s="33"/>
+      <c r="H300" s="34"/>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="14" t="s">
@@ -7504,11 +7524,11 @@
         <v>476</v>
       </c>
       <c r="C301" s="5"/>
-      <c r="D301" s="30"/>
-      <c r="E301" s="31"/>
+      <c r="D301" s="33"/>
+      <c r="E301" s="34"/>
       <c r="F301" s="5"/>
-      <c r="G301" s="30"/>
-      <c r="H301" s="31"/>
+      <c r="G301" s="33"/>
+      <c r="H301" s="34"/>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="14" t="s">
@@ -7518,11 +7538,11 @@
         <v>653</v>
       </c>
       <c r="C302" s="5"/>
-      <c r="D302" s="30"/>
-      <c r="E302" s="31"/>
+      <c r="D302" s="33"/>
+      <c r="E302" s="34"/>
       <c r="F302" s="5"/>
-      <c r="G302" s="30"/>
-      <c r="H302" s="31"/>
+      <c r="G302" s="33"/>
+      <c r="H302" s="34"/>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="14" t="s">
@@ -7532,11 +7552,11 @@
         <v>478</v>
       </c>
       <c r="C303" s="5"/>
-      <c r="D303" s="30"/>
-      <c r="E303" s="31"/>
+      <c r="D303" s="33"/>
+      <c r="E303" s="34"/>
       <c r="F303" s="5"/>
-      <c r="G303" s="30"/>
-      <c r="H303" s="31"/>
+      <c r="G303" s="33"/>
+      <c r="H303" s="34"/>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="14" t="s">
@@ -7546,11 +7566,11 @@
         <v>479</v>
       </c>
       <c r="C304" s="5"/>
-      <c r="D304" s="30"/>
-      <c r="E304" s="31"/>
+      <c r="D304" s="33"/>
+      <c r="E304" s="34"/>
       <c r="F304" s="5"/>
-      <c r="G304" s="30"/>
-      <c r="H304" s="31"/>
+      <c r="G304" s="33"/>
+      <c r="H304" s="34"/>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="14" t="s">
@@ -7560,11 +7580,11 @@
         <v>477</v>
       </c>
       <c r="C305" s="5"/>
-      <c r="D305" s="30"/>
-      <c r="E305" s="31"/>
+      <c r="D305" s="33"/>
+      <c r="E305" s="34"/>
       <c r="F305" s="5"/>
-      <c r="G305" s="30"/>
-      <c r="H305" s="31"/>
+      <c r="G305" s="33"/>
+      <c r="H305" s="34"/>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="14" t="s">
@@ -7574,11 +7594,11 @@
         <v>478</v>
       </c>
       <c r="C306" s="5"/>
-      <c r="D306" s="30"/>
-      <c r="E306" s="31"/>
+      <c r="D306" s="33"/>
+      <c r="E306" s="34"/>
       <c r="F306" s="5"/>
-      <c r="G306" s="30"/>
-      <c r="H306" s="31"/>
+      <c r="G306" s="33"/>
+      <c r="H306" s="34"/>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="14" t="s">
@@ -7588,11 +7608,11 @@
         <v>479</v>
       </c>
       <c r="C307" s="5"/>
-      <c r="D307" s="30"/>
-      <c r="E307" s="31"/>
+      <c r="D307" s="33"/>
+      <c r="E307" s="34"/>
       <c r="F307" s="5"/>
-      <c r="G307" s="30"/>
-      <c r="H307" s="31"/>
+      <c r="G307" s="33"/>
+      <c r="H307" s="34"/>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="14" t="s">
@@ -7602,11 +7622,11 @@
         <v>480</v>
       </c>
       <c r="C308" s="5"/>
-      <c r="D308" s="30"/>
-      <c r="E308" s="31"/>
+      <c r="D308" s="33"/>
+      <c r="E308" s="34"/>
       <c r="F308" s="5"/>
-      <c r="G308" s="30"/>
-      <c r="H308" s="31"/>
+      <c r="G308" s="33"/>
+      <c r="H308" s="34"/>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="14" t="s">
@@ -7616,11 +7636,11 @@
         <v>477</v>
       </c>
       <c r="C309" s="5"/>
-      <c r="D309" s="30"/>
-      <c r="E309" s="31"/>
+      <c r="D309" s="33"/>
+      <c r="E309" s="34"/>
       <c r="F309" s="4"/>
-      <c r="G309" s="30"/>
-      <c r="H309" s="31"/>
+      <c r="G309" s="33"/>
+      <c r="H309" s="34"/>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="14" t="s">
@@ -7630,11 +7650,11 @@
         <v>478</v>
       </c>
       <c r="C310" s="5"/>
-      <c r="D310" s="30"/>
-      <c r="E310" s="31"/>
+      <c r="D310" s="33"/>
+      <c r="E310" s="34"/>
       <c r="F310" s="5"/>
-      <c r="G310" s="30"/>
-      <c r="H310" s="31"/>
+      <c r="G310" s="33"/>
+      <c r="H310" s="34"/>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="14" t="s">
@@ -7644,11 +7664,11 @@
         <v>479</v>
       </c>
       <c r="C311" s="5"/>
-      <c r="D311" s="30"/>
-      <c r="E311" s="31"/>
+      <c r="D311" s="33"/>
+      <c r="E311" s="34"/>
       <c r="F311" s="5"/>
-      <c r="G311" s="30"/>
-      <c r="H311" s="31"/>
+      <c r="G311" s="33"/>
+      <c r="H311" s="34"/>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="14" t="s">
@@ -7658,11 +7678,11 @@
         <v>477</v>
       </c>
       <c r="C312" s="5"/>
-      <c r="D312" s="30"/>
-      <c r="E312" s="31"/>
+      <c r="D312" s="33"/>
+      <c r="E312" s="34"/>
       <c r="F312" s="4"/>
-      <c r="G312" s="30"/>
-      <c r="H312" s="31"/>
+      <c r="G312" s="33"/>
+      <c r="H312" s="34"/>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="14" t="s">
@@ -7672,11 +7692,11 @@
         <v>478</v>
       </c>
       <c r="C313" s="5"/>
-      <c r="D313" s="30"/>
-      <c r="E313" s="31"/>
+      <c r="D313" s="33"/>
+      <c r="E313" s="34"/>
       <c r="F313" s="5"/>
-      <c r="G313" s="30"/>
-      <c r="H313" s="31"/>
+      <c r="G313" s="33"/>
+      <c r="H313" s="34"/>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="14" t="s">
@@ -7686,11 +7706,11 @@
         <v>479</v>
       </c>
       <c r="C314" s="5"/>
-      <c r="D314" s="30"/>
-      <c r="E314" s="31"/>
+      <c r="D314" s="33"/>
+      <c r="E314" s="34"/>
       <c r="F314" s="5"/>
-      <c r="G314" s="30"/>
-      <c r="H314" s="31"/>
+      <c r="G314" s="33"/>
+      <c r="H314" s="34"/>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="7" t="s">
@@ -7702,11 +7722,11 @@
       <c r="C315" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="D315" s="30"/>
-      <c r="E315" s="31"/>
+      <c r="D315" s="33"/>
+      <c r="E315" s="34"/>
       <c r="F315" s="5"/>
-      <c r="G315" s="30"/>
-      <c r="H315" s="31"/>
+      <c r="G315" s="33"/>
+      <c r="H315" s="34"/>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="14" t="s">
@@ -7716,11 +7736,11 @@
         <v>278</v>
       </c>
       <c r="C316" s="5"/>
-      <c r="D316" s="30"/>
-      <c r="E316" s="31"/>
+      <c r="D316" s="33"/>
+      <c r="E316" s="34"/>
       <c r="F316" s="5"/>
-      <c r="G316" s="30"/>
-      <c r="H316" s="31"/>
+      <c r="G316" s="33"/>
+      <c r="H316" s="34"/>
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="14" t="s">
@@ -7730,11 +7750,11 @@
         <v>486</v>
       </c>
       <c r="C317" s="5"/>
-      <c r="D317" s="30"/>
-      <c r="E317" s="31"/>
+      <c r="D317" s="33"/>
+      <c r="E317" s="34"/>
       <c r="F317" s="5"/>
-      <c r="G317" s="30"/>
-      <c r="H317" s="31"/>
+      <c r="G317" s="33"/>
+      <c r="H317" s="34"/>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="14" t="s">
@@ -7744,11 +7764,11 @@
         <v>486</v>
       </c>
       <c r="C318" s="5"/>
-      <c r="D318" s="30"/>
-      <c r="E318" s="31"/>
+      <c r="D318" s="33"/>
+      <c r="E318" s="34"/>
       <c r="F318" s="5"/>
-      <c r="G318" s="30"/>
-      <c r="H318" s="31"/>
+      <c r="G318" s="33"/>
+      <c r="H318" s="34"/>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="8" t="s">
@@ -7760,11 +7780,11 @@
       <c r="C319" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="D319" s="30"/>
-      <c r="E319" s="31"/>
+      <c r="D319" s="33"/>
+      <c r="E319" s="34"/>
       <c r="F319" s="5"/>
-      <c r="G319" s="30"/>
-      <c r="H319" s="31"/>
+      <c r="G319" s="33"/>
+      <c r="H319" s="34"/>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="6" t="s">
@@ -7774,13 +7794,13 @@
         <v>490</v>
       </c>
       <c r="C320" s="5"/>
-      <c r="D320" s="35" t="s">
-        <v>691</v>
+      <c r="D320" s="35">
+        <v>0</v>
       </c>
       <c r="E320" s="36"/>
       <c r="F320" s="5"/>
-      <c r="G320" s="30"/>
-      <c r="H320" s="31"/>
+      <c r="G320" s="33"/>
+      <c r="H320" s="34"/>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="14" t="s">
@@ -7790,11 +7810,11 @@
         <v>491</v>
       </c>
       <c r="C321" s="5"/>
-      <c r="D321" s="30"/>
-      <c r="E321" s="31"/>
+      <c r="D321" s="33"/>
+      <c r="E321" s="34"/>
       <c r="F321" s="5"/>
-      <c r="G321" s="30"/>
-      <c r="H321" s="31"/>
+      <c r="G321" s="33"/>
+      <c r="H321" s="34"/>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="14" t="s">
@@ -7804,11 +7824,11 @@
         <v>492</v>
       </c>
       <c r="C322" s="5"/>
-      <c r="D322" s="30"/>
-      <c r="E322" s="31"/>
+      <c r="D322" s="33"/>
+      <c r="E322" s="34"/>
       <c r="F322" s="5"/>
-      <c r="G322" s="30"/>
-      <c r="H322" s="31"/>
+      <c r="G322" s="33"/>
+      <c r="H322" s="34"/>
     </row>
     <row r="323" spans="1:8">
       <c r="A323" s="14" t="s">
@@ -7818,11 +7838,11 @@
         <v>493</v>
       </c>
       <c r="C323" s="5"/>
-      <c r="D323" s="30"/>
-      <c r="E323" s="31"/>
+      <c r="D323" s="33"/>
+      <c r="E323" s="34"/>
       <c r="F323" s="5"/>
-      <c r="G323" s="30"/>
-      <c r="H323" s="31"/>
+      <c r="G323" s="33"/>
+      <c r="H323" s="34"/>
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="14" t="s">
@@ -7832,11 +7852,11 @@
         <v>493</v>
       </c>
       <c r="C324" s="5"/>
-      <c r="D324" s="30"/>
-      <c r="E324" s="31"/>
+      <c r="D324" s="33"/>
+      <c r="E324" s="34"/>
       <c r="F324" s="5"/>
-      <c r="G324" s="30"/>
-      <c r="H324" s="31"/>
+      <c r="G324" s="33"/>
+      <c r="H324" s="34"/>
     </row>
     <row r="325" spans="1:8">
       <c r="A325" s="14" t="s">
@@ -7846,11 +7866,11 @@
         <v>494</v>
       </c>
       <c r="C325" s="5"/>
-      <c r="D325" s="30"/>
-      <c r="E325" s="31"/>
+      <c r="D325" s="33"/>
+      <c r="E325" s="34"/>
       <c r="F325" s="5"/>
-      <c r="G325" s="30"/>
-      <c r="H325" s="31"/>
+      <c r="G325" s="33"/>
+      <c r="H325" s="34"/>
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="14" t="s">
@@ -7860,11 +7880,11 @@
         <v>652</v>
       </c>
       <c r="C326" s="5"/>
-      <c r="D326" s="30"/>
-      <c r="E326" s="31"/>
+      <c r="D326" s="33"/>
+      <c r="E326" s="34"/>
       <c r="F326" s="5"/>
-      <c r="G326" s="30"/>
-      <c r="H326" s="31"/>
+      <c r="G326" s="33"/>
+      <c r="H326" s="34"/>
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="14" t="s">
@@ -7874,11 +7894,11 @@
         <v>493</v>
       </c>
       <c r="C327" s="5"/>
-      <c r="D327" s="30"/>
-      <c r="E327" s="31"/>
+      <c r="D327" s="33"/>
+      <c r="E327" s="34"/>
       <c r="F327" s="5"/>
-      <c r="G327" s="30"/>
-      <c r="H327" s="31"/>
+      <c r="G327" s="33"/>
+      <c r="H327" s="34"/>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="14" t="s">
@@ -7888,25 +7908,25 @@
         <v>493</v>
       </c>
       <c r="C328" s="5"/>
-      <c r="D328" s="30"/>
-      <c r="E328" s="31"/>
+      <c r="D328" s="33"/>
+      <c r="E328" s="34"/>
       <c r="F328" s="5"/>
-      <c r="G328" s="30"/>
-      <c r="H328" s="31"/>
+      <c r="G328" s="33"/>
+      <c r="H328" s="34"/>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="21" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="D329" s="28"/>
-      <c r="E329" s="29"/>
+      <c r="D329" s="37"/>
+      <c r="E329" s="38"/>
       <c r="F329" s="5"/>
-      <c r="G329" s="30"/>
-      <c r="H329" s="31"/>
+      <c r="G329" s="33"/>
+      <c r="H329" s="34"/>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="21" t="s">
@@ -7914,8 +7934,8 @@
       </c>
       <c r="B330" s="4"/>
       <c r="C330" s="5"/>
-      <c r="D330" s="28"/>
-      <c r="E330" s="29"/>
+      <c r="D330" s="37"/>
+      <c r="E330" s="38"/>
       <c r="F330" s="16" t="s">
         <v>644</v>
       </c>
@@ -7928,8 +7948,8 @@
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="5"/>
-      <c r="D331" s="28"/>
-      <c r="E331" s="29"/>
+      <c r="D331" s="37"/>
+      <c r="E331" s="38"/>
       <c r="F331" s="5" t="s">
         <v>641</v>
       </c>
@@ -7942,8 +7962,8 @@
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="5"/>
-      <c r="D332" s="28"/>
-      <c r="E332" s="29"/>
+      <c r="D332" s="37"/>
+      <c r="E332" s="38"/>
       <c r="F332" s="5" t="s">
         <v>642</v>
       </c>
@@ -7956,9 +7976,9 @@
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="5"/>
-      <c r="D333" s="28"/>
-      <c r="E333" s="29"/>
-      <c r="F333" s="38"/>
+      <c r="D333" s="37"/>
+      <c r="E333" s="38"/>
+      <c r="F333" s="30"/>
       <c r="G333" s="19"/>
       <c r="H333" s="20"/>
     </row>
@@ -7968,10 +7988,10 @@
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="5"/>
-      <c r="D334" s="28"/>
-      <c r="E334" s="29"/>
-      <c r="F334" s="37" t="s">
-        <v>699</v>
+      <c r="D334" s="37"/>
+      <c r="E334" s="38"/>
+      <c r="F334" s="29" t="s">
+        <v>697</v>
       </c>
       <c r="G334" s="19"/>
       <c r="H334" s="20"/>
@@ -8456,7 +8476,7 @@
       </c>
       <c r="H362" s="24"/>
     </row>
-    <row r="363" spans="3:8" ht="45">
+    <row r="363" spans="3:8" ht="30">
       <c r="C363" s="23" t="s">
         <v>525</v>
       </c>
@@ -8772,297 +8792,354 @@
     </row>
   </sheetData>
   <mergeCells count="663">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="D294:E294"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="D329:E329"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="D331:E331"/>
+    <mergeCell ref="D332:E332"/>
+    <mergeCell ref="G325:H325"/>
+    <mergeCell ref="G326:H326"/>
+    <mergeCell ref="G327:H327"/>
+    <mergeCell ref="G328:H328"/>
+    <mergeCell ref="G329:H329"/>
+    <mergeCell ref="D328:E328"/>
+    <mergeCell ref="G319:H319"/>
+    <mergeCell ref="G320:H320"/>
+    <mergeCell ref="G321:H321"/>
+    <mergeCell ref="G322:H322"/>
+    <mergeCell ref="G323:H323"/>
+    <mergeCell ref="G324:H324"/>
+    <mergeCell ref="G313:H313"/>
+    <mergeCell ref="G314:H314"/>
+    <mergeCell ref="G315:H315"/>
+    <mergeCell ref="G316:H316"/>
+    <mergeCell ref="G317:H317"/>
+    <mergeCell ref="G318:H318"/>
+    <mergeCell ref="G307:H307"/>
+    <mergeCell ref="G308:H308"/>
+    <mergeCell ref="G309:H309"/>
+    <mergeCell ref="G310:H310"/>
+    <mergeCell ref="G311:H311"/>
+    <mergeCell ref="G312:H312"/>
+    <mergeCell ref="G301:H301"/>
+    <mergeCell ref="G302:H302"/>
+    <mergeCell ref="G303:H303"/>
+    <mergeCell ref="G304:H304"/>
+    <mergeCell ref="G305:H305"/>
+    <mergeCell ref="G306:H306"/>
+    <mergeCell ref="G295:H295"/>
+    <mergeCell ref="G296:H296"/>
+    <mergeCell ref="G297:H297"/>
+    <mergeCell ref="G298:H298"/>
+    <mergeCell ref="G299:H299"/>
+    <mergeCell ref="G300:H300"/>
+    <mergeCell ref="G289:H289"/>
+    <mergeCell ref="G290:H290"/>
+    <mergeCell ref="G291:H291"/>
+    <mergeCell ref="G292:H292"/>
+    <mergeCell ref="G293:H293"/>
+    <mergeCell ref="G294:H294"/>
+    <mergeCell ref="G283:H283"/>
+    <mergeCell ref="G284:H284"/>
+    <mergeCell ref="G285:H285"/>
+    <mergeCell ref="G286:H286"/>
+    <mergeCell ref="G287:H287"/>
+    <mergeCell ref="G288:H288"/>
+    <mergeCell ref="G277:H277"/>
+    <mergeCell ref="G278:H278"/>
+    <mergeCell ref="G279:H279"/>
+    <mergeCell ref="G280:H280"/>
+    <mergeCell ref="G281:H281"/>
+    <mergeCell ref="G282:H282"/>
+    <mergeCell ref="G271:H271"/>
+    <mergeCell ref="G272:H272"/>
+    <mergeCell ref="G273:H273"/>
+    <mergeCell ref="G274:H274"/>
+    <mergeCell ref="G275:H275"/>
+    <mergeCell ref="G276:H276"/>
+    <mergeCell ref="G265:H265"/>
+    <mergeCell ref="G266:H266"/>
+    <mergeCell ref="G267:H267"/>
+    <mergeCell ref="G268:H268"/>
+    <mergeCell ref="G269:H269"/>
+    <mergeCell ref="G270:H270"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="G261:H261"/>
+    <mergeCell ref="G262:H262"/>
+    <mergeCell ref="G263:H263"/>
+    <mergeCell ref="G264:H264"/>
+    <mergeCell ref="G253:H253"/>
+    <mergeCell ref="G254:H254"/>
+    <mergeCell ref="G255:H255"/>
+    <mergeCell ref="G256:H256"/>
+    <mergeCell ref="G257:H257"/>
+    <mergeCell ref="G258:H258"/>
+    <mergeCell ref="G247:H247"/>
+    <mergeCell ref="G248:H248"/>
+    <mergeCell ref="G249:H249"/>
+    <mergeCell ref="G250:H250"/>
+    <mergeCell ref="G251:H251"/>
+    <mergeCell ref="G252:H252"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="G242:H242"/>
+    <mergeCell ref="G243:H243"/>
+    <mergeCell ref="G244:H244"/>
+    <mergeCell ref="G245:H245"/>
+    <mergeCell ref="G246:H246"/>
+    <mergeCell ref="G235:H235"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="G238:H238"/>
+    <mergeCell ref="G239:H239"/>
+    <mergeCell ref="G240:H240"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="G234:H234"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="D326:E326"/>
+    <mergeCell ref="D327:E327"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="D298:E298"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="D291:E291"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -9087,354 +9164,297 @@
     <mergeCell ref="D301:E301"/>
     <mergeCell ref="D302:E302"/>
     <mergeCell ref="D303:E303"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D325:E325"/>
-    <mergeCell ref="D326:E326"/>
-    <mergeCell ref="D327:E327"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="D295:E295"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="D298:E298"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="G214:H214"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G235:H235"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="G237:H237"/>
-    <mergeCell ref="G238:H238"/>
-    <mergeCell ref="G239:H239"/>
-    <mergeCell ref="G240:H240"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="G231:H231"/>
-    <mergeCell ref="G232:H232"/>
-    <mergeCell ref="G233:H233"/>
-    <mergeCell ref="G234:H234"/>
-    <mergeCell ref="G247:H247"/>
-    <mergeCell ref="G248:H248"/>
-    <mergeCell ref="G249:H249"/>
-    <mergeCell ref="G250:H250"/>
-    <mergeCell ref="G251:H251"/>
-    <mergeCell ref="G252:H252"/>
-    <mergeCell ref="G241:H241"/>
-    <mergeCell ref="G242:H242"/>
-    <mergeCell ref="G243:H243"/>
-    <mergeCell ref="G244:H244"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="G246:H246"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="G260:H260"/>
-    <mergeCell ref="G261:H261"/>
-    <mergeCell ref="G262:H262"/>
-    <mergeCell ref="G263:H263"/>
-    <mergeCell ref="G264:H264"/>
-    <mergeCell ref="G253:H253"/>
-    <mergeCell ref="G254:H254"/>
-    <mergeCell ref="G255:H255"/>
-    <mergeCell ref="G256:H256"/>
-    <mergeCell ref="G257:H257"/>
-    <mergeCell ref="G258:H258"/>
-    <mergeCell ref="G271:H271"/>
-    <mergeCell ref="G272:H272"/>
-    <mergeCell ref="G273:H273"/>
-    <mergeCell ref="G274:H274"/>
-    <mergeCell ref="G275:H275"/>
-    <mergeCell ref="G276:H276"/>
-    <mergeCell ref="G265:H265"/>
-    <mergeCell ref="G266:H266"/>
-    <mergeCell ref="G267:H267"/>
-    <mergeCell ref="G268:H268"/>
-    <mergeCell ref="G269:H269"/>
-    <mergeCell ref="G270:H270"/>
-    <mergeCell ref="G283:H283"/>
-    <mergeCell ref="G284:H284"/>
-    <mergeCell ref="G285:H285"/>
-    <mergeCell ref="G286:H286"/>
-    <mergeCell ref="G287:H287"/>
-    <mergeCell ref="G288:H288"/>
-    <mergeCell ref="G277:H277"/>
-    <mergeCell ref="G278:H278"/>
-    <mergeCell ref="G279:H279"/>
-    <mergeCell ref="G280:H280"/>
-    <mergeCell ref="G281:H281"/>
-    <mergeCell ref="G282:H282"/>
-    <mergeCell ref="G295:H295"/>
-    <mergeCell ref="G296:H296"/>
-    <mergeCell ref="G297:H297"/>
-    <mergeCell ref="G298:H298"/>
-    <mergeCell ref="G299:H299"/>
-    <mergeCell ref="G300:H300"/>
-    <mergeCell ref="G289:H289"/>
-    <mergeCell ref="G290:H290"/>
-    <mergeCell ref="G291:H291"/>
-    <mergeCell ref="G292:H292"/>
-    <mergeCell ref="G293:H293"/>
-    <mergeCell ref="G294:H294"/>
-    <mergeCell ref="G307:H307"/>
-    <mergeCell ref="G308:H308"/>
-    <mergeCell ref="G309:H309"/>
-    <mergeCell ref="G310:H310"/>
-    <mergeCell ref="G311:H311"/>
-    <mergeCell ref="G312:H312"/>
-    <mergeCell ref="G301:H301"/>
-    <mergeCell ref="G302:H302"/>
-    <mergeCell ref="G303:H303"/>
-    <mergeCell ref="G304:H304"/>
-    <mergeCell ref="G305:H305"/>
-    <mergeCell ref="G306:H306"/>
-    <mergeCell ref="G319:H319"/>
-    <mergeCell ref="G320:H320"/>
-    <mergeCell ref="G321:H321"/>
-    <mergeCell ref="G322:H322"/>
-    <mergeCell ref="G323:H323"/>
-    <mergeCell ref="G324:H324"/>
-    <mergeCell ref="G313:H313"/>
-    <mergeCell ref="G314:H314"/>
-    <mergeCell ref="G315:H315"/>
-    <mergeCell ref="G316:H316"/>
-    <mergeCell ref="G317:H317"/>
-    <mergeCell ref="G318:H318"/>
-    <mergeCell ref="D329:E329"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="D331:E331"/>
-    <mergeCell ref="D332:E332"/>
-    <mergeCell ref="G325:H325"/>
-    <mergeCell ref="G326:H326"/>
-    <mergeCell ref="G327:H327"/>
-    <mergeCell ref="G328:H328"/>
-    <mergeCell ref="G329:H329"/>
-    <mergeCell ref="D328:E328"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="D334:E334"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="D294:E294"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
